--- a/dev/fhir-ig/StructureDefinition-onconova-venous-invasion-category.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:09:08+00:00</t>
+    <t>2025-10-09T11:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3368,7 +3368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>175</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>201</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>205</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>219</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>229</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>246</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>265</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>274</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>326</v>
       </c>
@@ -8080,12 +8080,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP52">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/dev/fhir-ig/StructureDefinition-onconova-venous-invasion-category.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:26:42+00:00</t>
+    <t>2025-10-09T11:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-venous-invasion-category.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:30:09+00:00</t>
+    <t>2025-10-09T11:39:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-venous-invasion-category.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:39:09+00:00</t>
+    <t>2025-10-09T11:50:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-venous-invasion-category.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:50:35+00:00</t>
+    <t>2025-10-15T08:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
